--- a/data/trans_orig/Q23_tabaco_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q23_tabaco_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>67879</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>53137</v>
+        <v>53268</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>86288</v>
+        <v>85063</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1157364012237792</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09059985665737087</v>
+        <v>0.09082375164469619</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1471237952809252</v>
+        <v>0.1450355825368677</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>62</v>
@@ -765,19 +765,19 @@
         <v>64759</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>51078</v>
+        <v>52489</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>78712</v>
+        <v>78946</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3089537354127567</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2436851889610926</v>
+        <v>0.2504128747709582</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3755221006134505</v>
+        <v>0.3766377751373766</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>130</v>
@@ -786,19 +786,19 @@
         <v>132638</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>113199</v>
+        <v>112452</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>156444</v>
+        <v>155928</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1666089703751554</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1421909194653354</v>
+        <v>0.1412526896258794</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1965120369159173</v>
+        <v>0.1958628797278481</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>151177</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>131271</v>
+        <v>130011</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>173401</v>
+        <v>171839</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2577615296084491</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2238214903255538</v>
+        <v>0.2216739728955983</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2956541671815169</v>
+        <v>0.2929923785932418</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>55</v>
@@ -836,19 +836,19 @@
         <v>59092</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>47652</v>
+        <v>46935</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>73874</v>
+        <v>73647</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2819186090406411</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2273396546452131</v>
+        <v>0.2239176535269891</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.352438658887752</v>
+        <v>0.3513572229245525</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>205</v>
@@ -857,19 +857,19 @@
         <v>210269</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>186543</v>
+        <v>188283</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>238642</v>
+        <v>240025</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2641218942158373</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2343187744742353</v>
+        <v>0.2365044999027015</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2997617764372974</v>
+        <v>0.3014989731758788</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>93424</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>75839</v>
+        <v>77091</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>112335</v>
+        <v>112435</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1592913941071411</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1293080619527059</v>
+        <v>0.1314425304149741</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1915351415579744</v>
+        <v>0.1917054837440607</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -907,19 +907,19 @@
         <v>31627</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22328</v>
+        <v>22476</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>41699</v>
+        <v>42181</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1508844292783902</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.10652315015179</v>
+        <v>0.1072309161118557</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1989362340151117</v>
+        <v>0.2012370005419755</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>126</v>
@@ -928,19 +928,19 @@
         <v>125051</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>106484</v>
+        <v>104970</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>147307</v>
+        <v>146097</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1570779079238284</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1337555571009677</v>
+        <v>0.1318537342125524</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1850344632539276</v>
+        <v>0.1835144936535026</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>274018</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>248063</v>
+        <v>249855</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>294321</v>
+        <v>299476</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4672106750606306</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4229555362308046</v>
+        <v>0.4260119768591987</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5018276430244532</v>
+        <v>0.510617181946502</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>55</v>
@@ -978,19 +978,19 @@
         <v>54130</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42488</v>
+        <v>43134</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>68632</v>
+        <v>67001</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.258243226268212</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2027033704094986</v>
+        <v>0.2057863844876997</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3274302274468728</v>
+        <v>0.3196468704941146</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>327</v>
@@ -999,19 +999,19 @@
         <v>328148</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>299225</v>
+        <v>300725</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>353996</v>
+        <v>354166</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4121912274851789</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3758613526240928</v>
+        <v>0.3777446507361792</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4446589789203982</v>
+        <v>0.4448724559655725</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>80135</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>62997</v>
+        <v>63086</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>98367</v>
+        <v>98209</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08958239432701134</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07042448900581538</v>
+        <v>0.07052380785014568</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1099640614568301</v>
+        <v>0.1097876832972974</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>103</v>
@@ -1124,19 +1124,19 @@
         <v>107583</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>90037</v>
+        <v>90268</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>127339</v>
+        <v>128085</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1736249778098182</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1453077003634971</v>
+        <v>0.1456800591418736</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2055080297107082</v>
+        <v>0.2067127614475532</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>177</v>
@@ -1145,19 +1145,19 @@
         <v>187718</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>162783</v>
+        <v>162702</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>215078</v>
+        <v>217997</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.12397447875545</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1075066357261708</v>
+        <v>0.1074533687634965</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1420442754023863</v>
+        <v>0.1439720005443814</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>293705</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>266926</v>
+        <v>266451</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>324116</v>
+        <v>319083</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3283320389024219</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2983963802435328</v>
+        <v>0.2978650716198518</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3623294118153547</v>
+        <v>0.3567022120239832</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>212</v>
@@ -1195,19 +1195,19 @@
         <v>216070</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>193778</v>
+        <v>193125</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>240619</v>
+        <v>240097</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3487087212496283</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3127321315103702</v>
+        <v>0.3116788870310212</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3883275763623757</v>
+        <v>0.3874850098393331</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>495</v>
@@ -1216,19 +1216,19 @@
         <v>509775</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>474070</v>
+        <v>474903</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>547032</v>
+        <v>551843</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3366706281105936</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3130901839626701</v>
+        <v>0.3136404736753911</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3612765378132937</v>
+        <v>0.3644541879083559</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>231539</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>207913</v>
+        <v>205252</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>261242</v>
+        <v>256255</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.258837420913161</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2324261649258681</v>
+        <v>0.2294506571023728</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2920423376040658</v>
+        <v>0.2864671330266946</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>112</v>
@@ -1266,19 +1266,19 @@
         <v>115564</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>96756</v>
+        <v>97408</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>135770</v>
+        <v>136687</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1865056039889132</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1561516383379598</v>
+        <v>0.1572033843860118</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2191150260055368</v>
+        <v>0.2205952750305855</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>343</v>
@@ -1287,19 +1287,19 @@
         <v>347103</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>318425</v>
+        <v>314389</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>382382</v>
+        <v>377465</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2292376412368257</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2102973036268413</v>
+        <v>0.2076319858262151</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2525367401201091</v>
+        <v>0.2492896865815553</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>289157</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>258572</v>
+        <v>263066</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>315437</v>
+        <v>319190</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3232481458574057</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2890569303896867</v>
+        <v>0.294081824342536</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3526271972865223</v>
+        <v>0.3568227044286471</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>180</v>
@@ -1337,19 +1337,19 @@
         <v>180412</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>154982</v>
+        <v>160805</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>201198</v>
+        <v>203881</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2911606969516404</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2501209177656888</v>
+        <v>0.2595182802479342</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3247066322373929</v>
+        <v>0.3290367892417481</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>465</v>
@@ -1358,19 +1358,19 @@
         <v>469568</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>436301</v>
+        <v>435042</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>506447</v>
+        <v>503391</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3101172518971307</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2881461568519804</v>
+        <v>0.2873152051632189</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3344729649448485</v>
+        <v>0.332454520794814</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>37815</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>26469</v>
+        <v>26696</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>50419</v>
+        <v>51211</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1618215645641882</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1132699033375094</v>
+        <v>0.114241180472643</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.21575619960104</v>
+        <v>0.2191478149027334</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>40</v>
@@ -1483,19 +1483,19 @@
         <v>42171</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>31715</v>
+        <v>31490</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>54363</v>
+        <v>54599</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2517035145315828</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1892931614313384</v>
+        <v>0.1879545849934594</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3244689951011213</v>
+        <v>0.3258787342025559</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>75</v>
@@ -1504,19 +1504,19 @@
         <v>79986</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>64504</v>
+        <v>64690</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>98238</v>
+        <v>97086</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1993541633526298</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1607675927804748</v>
+        <v>0.161230917957155</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2448448421529961</v>
+        <v>0.241973308502332</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>103871</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>88605</v>
+        <v>89746</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>119644</v>
+        <v>119231</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4444926911986047</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3791669317472985</v>
+        <v>0.3840503808424878</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5119902867396472</v>
+        <v>0.5102224335760017</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>64</v>
@@ -1554,19 +1554,19 @@
         <v>65714</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>53981</v>
+        <v>52611</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>78965</v>
+        <v>78112</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3922225543858567</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3221933675085506</v>
+        <v>0.3140134066797299</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4713121166187916</v>
+        <v>0.4662180061470745</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>165</v>
@@ -1575,19 +1575,19 @@
         <v>169585</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>149621</v>
+        <v>149041</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>188037</v>
+        <v>189983</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4226659053498164</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3729081219091009</v>
+        <v>0.3714636727419418</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4686560295336022</v>
+        <v>0.4735057430769117</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>46912</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35868</v>
+        <v>36434</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60247</v>
+        <v>60206</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2007510092758644</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1534883171484269</v>
+        <v>0.1559093756041157</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2578122298739899</v>
+        <v>0.2576368384203201</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -1625,19 +1625,19 @@
         <v>32181</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23285</v>
+        <v>22385</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>44201</v>
+        <v>43280</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1920772332794614</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1389784885863928</v>
+        <v>0.1336086279622613</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2638172510386906</v>
+        <v>0.2583232845288089</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>77</v>
@@ -1646,19 +1646,19 @@
         <v>79093</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>63317</v>
+        <v>63048</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>96480</v>
+        <v>95914</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1971290434131756</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1578083540612698</v>
+        <v>0.1571387911452998</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2404630529350698</v>
+        <v>0.2390507489261146</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>45086</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>32654</v>
+        <v>33579</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>58440</v>
+        <v>57701</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1929347349613427</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1397350214547121</v>
+        <v>0.1436946033436778</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2500828763156943</v>
+        <v>0.2469187770793852</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -1696,19 +1696,19 @@
         <v>27476</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18764</v>
+        <v>18595</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38208</v>
+        <v>39029</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1639966978030991</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1119964017856385</v>
+        <v>0.1109862297950064</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.228050559410967</v>
+        <v>0.2329502798533608</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>69</v>
@@ -1717,19 +1717,19 @@
         <v>72562</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>57282</v>
+        <v>55721</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>89191</v>
+        <v>89256</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1808508878843782</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1427661332911285</v>
+        <v>0.1388762868142274</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.222296795331367</v>
+        <v>0.2224575945879976</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>185829</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>162042</v>
+        <v>160764</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>215839</v>
+        <v>213159</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1083729138211889</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09450058519713003</v>
+        <v>0.09375554670938244</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1258742678515741</v>
+        <v>0.1243113197547956</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>205</v>
@@ -1842,19 +1842,19 @@
         <v>214514</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>188123</v>
+        <v>187820</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>245123</v>
+        <v>240620</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2152063918879373</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1887300655290423</v>
+        <v>0.1884269549216845</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2459141176178096</v>
+        <v>0.2413975314295562</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>382</v>
@@ -1863,19 +1863,19 @@
         <v>400342</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>364474</v>
+        <v>362124</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>444017</v>
+        <v>437310</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1476462560068033</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1344178634540487</v>
+        <v>0.1335514946960752</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1637533244398696</v>
+        <v>0.1612798329756153</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>548752</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>510556</v>
+        <v>509035</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>588334</v>
+        <v>586903</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3200248041631676</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2977493794591334</v>
+        <v>0.2968621154179758</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3431086146235068</v>
+        <v>0.342273717769046</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>331</v>
@@ -1913,19 +1913,19 @@
         <v>340877</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>313080</v>
+        <v>311685</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>371750</v>
+        <v>372262</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.34197772958145</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3140909786584818</v>
+        <v>0.312691689152729</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3729508708513219</v>
+        <v>0.3734637475619787</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>865</v>
@@ -1934,19 +1934,19 @@
         <v>889629</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>841548</v>
+        <v>841015</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>941356</v>
+        <v>936210</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3280949781154638</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3103628209839034</v>
+        <v>0.3101663994818348</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3471719082065945</v>
+        <v>0.3452740841513278</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>371876</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>337288</v>
+        <v>339829</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>405766</v>
+        <v>406443</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2168728167309753</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1967020243380053</v>
+        <v>0.1981838232715352</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2366372226718119</v>
+        <v>0.2370322299198903</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>175</v>
@@ -1984,19 +1984,19 @@
         <v>179372</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>155009</v>
+        <v>155906</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>204114</v>
+        <v>205266</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.179951497488199</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1555092329954219</v>
+        <v>0.1564092944265217</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2047735244855483</v>
+        <v>0.2059286940750304</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>546</v>
@@ -2005,19 +2005,19 @@
         <v>551248</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>513017</v>
+        <v>511387</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>596230</v>
+        <v>594394</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2033000712694834</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.189200486080538</v>
+        <v>0.188599504472441</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2198895959601912</v>
+        <v>0.2192123043372094</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>608261</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>568445</v>
+        <v>571303</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>647368</v>
+        <v>650273</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3547294652846681</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3315093644701953</v>
+        <v>0.3331761470086834</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3775364533622764</v>
+        <v>0.3792304801441185</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>261</v>
@@ -2055,19 +2055,19 @@
         <v>262018</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>235758</v>
+        <v>236129</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>291036</v>
+        <v>290343</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2628643810424137</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2365197931420601</v>
+        <v>0.2368917359900097</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2919754152445539</v>
+        <v>0.2912809067324123</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>861</v>
@@ -2076,19 +2076,19 @@
         <v>870279</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>821605</v>
+        <v>819530</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>920608</v>
+        <v>919690</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3209586946082496</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3030077557531237</v>
+        <v>0.3022428051126271</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3395202570995963</v>
+        <v>0.3391815946001931</v>
       </c>
     </row>
     <row r="23">
@@ -2419,19 +2419,19 @@
         <v>100359</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>82351</v>
+        <v>80718</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>123617</v>
+        <v>122812</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1480793914238879</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1215088402116403</v>
+        <v>0.1190998319743327</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1823973378338338</v>
+        <v>0.1812092968646504</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>71</v>
@@ -2440,19 +2440,19 @@
         <v>76646</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>62849</v>
+        <v>62126</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>93221</v>
+        <v>92860</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2911321031995776</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.238722904774835</v>
+        <v>0.2359781117222274</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3540884442456109</v>
+        <v>0.3527192647341065</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>159</v>
@@ -2461,19 +2461,19 @@
         <v>177005</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>154376</v>
+        <v>151861</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>205805</v>
+        <v>200980</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1881019901601498</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1640546417204663</v>
+        <v>0.1613821484703498</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2187075338115881</v>
+        <v>0.2135802171384992</v>
       </c>
     </row>
     <row r="5">
@@ -2490,19 +2490,19 @@
         <v>158998</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>136968</v>
+        <v>136401</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>184110</v>
+        <v>182795</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2346026898524755</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2020963280772189</v>
+        <v>0.2012602165684806</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.27165491619798</v>
+        <v>0.2697139964682506</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>62</v>
@@ -2511,19 +2511,19 @@
         <v>64269</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>49534</v>
+        <v>51425</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>78248</v>
+        <v>79539</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2441167569679358</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1881484940230577</v>
+        <v>0.1953334192158059</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2972147299423062</v>
+        <v>0.3021189880344542</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>209</v>
@@ -2532,19 +2532,19 @@
         <v>223267</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>198440</v>
+        <v>196833</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>250267</v>
+        <v>255653</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2372644897287966</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2108814156442391</v>
+        <v>0.2091737110639247</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2659575214248052</v>
+        <v>0.2716811656038141</v>
       </c>
     </row>
     <row r="6">
@@ -2561,19 +2561,19 @@
         <v>106839</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>88103</v>
+        <v>86895</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>126988</v>
+        <v>126241</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1576415336274381</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1299957610642877</v>
+        <v>0.1282140177471594</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1873716916375724</v>
+        <v>0.1862696173211451</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>37</v>
@@ -2582,19 +2582,19 @@
         <v>40326</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29700</v>
+        <v>28987</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>52740</v>
+        <v>53254</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1531717407129905</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1128109554292627</v>
+        <v>0.1101020531898265</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.200324872454279</v>
+        <v>0.2022793260180855</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>138</v>
@@ -2603,19 +2603,19 @@
         <v>147165</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>125596</v>
+        <v>126370</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>171175</v>
+        <v>172139</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.156390996493059</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1334701026411207</v>
+        <v>0.1342928558997135</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1819072139855525</v>
+        <v>0.1829308631525716</v>
       </c>
     </row>
     <row r="7">
@@ -2632,19 +2632,19 @@
         <v>311539</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>285732</v>
+        <v>283202</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>341099</v>
+        <v>336874</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4596763850961986</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4215983291802864</v>
+        <v>0.417865006879127</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5032929226419561</v>
+        <v>0.4970583025082174</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>76</v>
@@ -2653,19 +2653,19 @@
         <v>82030</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>67770</v>
+        <v>66640</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>98237</v>
+        <v>98803</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3115793991194961</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2574151136665667</v>
+        <v>0.2531241582654175</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3731401405527381</v>
+        <v>0.3752931097183007</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>373</v>
@@ -2674,19 +2674,19 @@
         <v>393568</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>363141</v>
+        <v>359346</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>422972</v>
+        <v>425802</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4182425236179946</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3859082481266137</v>
+        <v>0.3818756201167334</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4494903804292172</v>
+        <v>0.4524980386513163</v>
       </c>
     </row>
     <row r="8">
@@ -2778,19 +2778,19 @@
         <v>182491</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>156976</v>
+        <v>154813</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>207953</v>
+        <v>207055</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1638177395937218</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1409135732000226</v>
+        <v>0.1389721714201917</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1866745469798526</v>
+        <v>0.1858689845151629</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>159</v>
@@ -2799,19 +2799,19 @@
         <v>177839</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>154294</v>
+        <v>153204</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>202571</v>
+        <v>204641</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2097095275217183</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.181945345649921</v>
+        <v>0.1806606749614929</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2388740381620467</v>
+        <v>0.2413157185140335</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>321</v>
@@ -2820,19 +2820,19 @@
         <v>360329</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>323169</v>
+        <v>323455</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>397173</v>
+        <v>399021</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1836531665872063</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1647133201751368</v>
+        <v>0.1648589329317192</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2024321416518829</v>
+        <v>0.2033738072510501</v>
       </c>
     </row>
     <row r="10">
@@ -2849,19 +2849,19 @@
         <v>344120</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>308460</v>
+        <v>315271</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>374681</v>
+        <v>376627</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3089089273954458</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2768974676030683</v>
+        <v>0.2830120782929688</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3363428786108487</v>
+        <v>0.3380896857718246</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>249</v>
@@ -2870,19 +2870,19 @@
         <v>270600</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>242608</v>
+        <v>242636</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>299389</v>
+        <v>298425</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3190952751135414</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2860864360237942</v>
+        <v>0.2861199428491276</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3530440411749988</v>
+        <v>0.3519070284341502</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>579</v>
@@ -2891,19 +2891,19 @@
         <v>614720</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>571428</v>
+        <v>574099</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>656387</v>
+        <v>660640</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3133116880115619</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2912467539351299</v>
+        <v>0.2926080887322889</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3345488147641423</v>
+        <v>0.3367163710449731</v>
       </c>
     </row>
     <row r="11">
@@ -2920,19 +2920,19 @@
         <v>217553</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>189134</v>
+        <v>191012</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>247590</v>
+        <v>244357</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1952927067979602</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1697811893877076</v>
+        <v>0.1714670040484064</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2222563768274464</v>
+        <v>0.2193537809928459</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>144</v>
@@ -2941,19 +2941,19 @@
         <v>155165</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>134655</v>
+        <v>131484</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>178766</v>
+        <v>179631</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1829721289330862</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1587867302151366</v>
+        <v>0.1550471905315407</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2108031685719007</v>
+        <v>0.2118235696725642</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>348</v>
@@ -2962,19 +2962,19 @@
         <v>372718</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>337635</v>
+        <v>334657</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>406460</v>
+        <v>407332</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1899674855810469</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.172086684886769</v>
+        <v>0.170568783332204</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2071651912594638</v>
+        <v>0.20760971555544</v>
       </c>
     </row>
     <row r="12">
@@ -2991,19 +2991,19 @@
         <v>369822</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>339246</v>
+        <v>337703</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>402840</v>
+        <v>403992</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3319806262128722</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3045332450334507</v>
+        <v>0.3031478959169804</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3616201199800745</v>
+        <v>0.3626544085710371</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>225</v>
@@ -3012,19 +3012,19 @@
         <v>244420</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>217336</v>
+        <v>220557</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>272033</v>
+        <v>272603</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2882230684316541</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2562860181790363</v>
+        <v>0.2600835513171385</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3207846586999918</v>
+        <v>0.3214570649973849</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>572</v>
@@ -3033,19 +3033,19 @@
         <v>614241</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>572325</v>
+        <v>569864</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>654430</v>
+        <v>652551</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3130676598201848</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2917034539852609</v>
+        <v>0.2904496223528601</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3335509573322569</v>
+        <v>0.3325936777394983</v>
       </c>
     </row>
     <row r="13">
@@ -3137,19 +3137,19 @@
         <v>53144</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>40844</v>
+        <v>39245</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>69826</v>
+        <v>68489</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.220984169852468</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1698384348730108</v>
+        <v>0.163187097899148</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2903514654906086</v>
+        <v>0.284791636654575</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>46</v>
@@ -3158,19 +3158,19 @@
         <v>49913</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37097</v>
+        <v>37862</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>62923</v>
+        <v>63274</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.243198669656369</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1807547370970984</v>
+        <v>0.1844843411341873</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3065935942316512</v>
+        <v>0.3083013536466159</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>90</v>
@@ -3179,19 +3179,19 @@
         <v>103057</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>84157</v>
+        <v>85480</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>123169</v>
+        <v>125637</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2312129107922196</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1888111050364924</v>
+        <v>0.1917777273506559</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2763353676511711</v>
+        <v>0.2818734384329465</v>
       </c>
     </row>
     <row r="15">
@@ -3208,19 +3208,19 @@
         <v>92261</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>76905</v>
+        <v>76545</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>109908</v>
+        <v>109563</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3836419427203014</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3197872349011133</v>
+        <v>0.3182923162698035</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4570226554350602</v>
+        <v>0.4555854176047768</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>76</v>
@@ -3229,19 +3229,19 @@
         <v>80908</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>67294</v>
+        <v>66613</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>96262</v>
+        <v>96135</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3942224805018691</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3278892480109715</v>
+        <v>0.3245706625518429</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4690333295467536</v>
+        <v>0.4684174143911224</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>163</v>
@@ -3250,19 +3250,19 @@
         <v>173169</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>150872</v>
+        <v>151622</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>195771</v>
+        <v>193169</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3885137868278111</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.338488127423049</v>
+        <v>0.3401721868096154</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4392215153358828</v>
+        <v>0.4333855044557874</v>
       </c>
     </row>
     <row r="16">
@@ -3279,19 +3279,19 @@
         <v>47199</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35259</v>
+        <v>35933</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>61309</v>
+        <v>61526</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1962616961876037</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1466125393807365</v>
+        <v>0.1494189646582037</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2549344255924749</v>
+        <v>0.2558395787283685</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -3300,19 +3300,19 @@
         <v>37204</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26619</v>
+        <v>27343</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>49811</v>
+        <v>50979</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1812756438970561</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1297001938327567</v>
+        <v>0.1332290818216384</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2427034792074966</v>
+        <v>0.2483947680276636</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>79</v>
@@ -3321,19 +3321,19 @@
         <v>84403</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>67212</v>
+        <v>68306</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>101910</v>
+        <v>102862</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1893613181488119</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1507932647306804</v>
+        <v>0.1532470362415512</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2286391941994583</v>
+        <v>0.2307754543352738</v>
       </c>
     </row>
     <row r="17">
@@ -3350,19 +3350,19 @@
         <v>47884</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>34876</v>
+        <v>35669</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>63281</v>
+        <v>63482</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.199112191239627</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1450202511783603</v>
+        <v>0.1483207198907633</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.263136311501023</v>
+        <v>0.2639734394367511</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -3371,19 +3371,19 @@
         <v>37210</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>25343</v>
+        <v>26200</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>50834</v>
+        <v>53360</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1813032059447058</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1234813589065219</v>
+        <v>0.1276581959757578</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.247686718505831</v>
+        <v>0.259993766200278</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>71</v>
@@ -3392,19 +3392,19 @@
         <v>85094</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>67623</v>
+        <v>69844</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>105507</v>
+        <v>104824</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1909119842311574</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1517157496930834</v>
+        <v>0.1566986783683742</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2367110222814832</v>
+        <v>0.2351778597248868</v>
       </c>
     </row>
     <row r="18">
@@ -3496,19 +3496,19 @@
         <v>335993</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>302825</v>
+        <v>300593</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>376745</v>
+        <v>370461</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1653340279095993</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1490126091138266</v>
+        <v>0.1479146561607241</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1853869328342401</v>
+        <v>0.1822949845657535</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>276</v>
@@ -3517,19 +3517,19 @@
         <v>304397</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>271170</v>
+        <v>269916</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>336472</v>
+        <v>336504</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2312124832615971</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2059739053523476</v>
+        <v>0.2050217704630911</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2555754634838352</v>
+        <v>0.2555996087788476</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>570</v>
@@ -3538,19 +3538,19 @@
         <v>640391</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>593583</v>
+        <v>594128</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>690382</v>
+        <v>693499</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1912335807729865</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1772558718864437</v>
+        <v>0.1774186390668825</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2061620839668043</v>
+        <v>0.207092735520799</v>
       </c>
     </row>
     <row r="20">
@@ -3567,19 +3567,19 @@
         <v>595380</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>554725</v>
+        <v>552208</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>641077</v>
+        <v>640585</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2929718212036802</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2729667228425138</v>
+        <v>0.2717282177361529</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3154583096600174</v>
+        <v>0.315216242210017</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>387</v>
@@ -3588,19 +3588,19 @@
         <v>415776</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>382732</v>
+        <v>382057</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>453929</v>
+        <v>453391</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3158132389832572</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2907137874611831</v>
+        <v>0.290201076214618</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3447928863231288</v>
+        <v>0.3443842322487294</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>951</v>
@@ -3609,19 +3609,19 @@
         <v>1011156</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>963245</v>
+        <v>960263</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1067602</v>
+        <v>1069773</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3019517297958893</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2876443783246691</v>
+        <v>0.2867539844432517</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3188074862320985</v>
+        <v>0.3194557107295725</v>
       </c>
     </row>
     <row r="21">
@@ -3638,19 +3638,19 @@
         <v>371591</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>338944</v>
+        <v>336663</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>408515</v>
+        <v>409624</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1828508363217225</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1667861192741739</v>
+        <v>0.1656635759848216</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.201020273798978</v>
+        <v>0.2015662205308096</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>215</v>
@@ -3659,19 +3659,19 @@
         <v>232694</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>204715</v>
+        <v>206817</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>263609</v>
+        <v>264971</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1767483925639737</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1554962108847224</v>
+        <v>0.1570927464617372</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2002310676881306</v>
+        <v>0.2012655326479796</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>565</v>
@@ -3680,19 +3680,19 @@
         <v>604285</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>562290</v>
+        <v>555846</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>653126</v>
+        <v>649264</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1804517126043375</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1679110670984529</v>
+        <v>0.1659868420867305</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1950367131506403</v>
+        <v>0.1938835004901414</v>
       </c>
     </row>
     <row r="22">
@@ -3709,19 +3709,19 @@
         <v>729244</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>684357</v>
+        <v>687324</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>779278</v>
+        <v>778109</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.358843314564998</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.336755331486221</v>
+        <v>0.3382153392186034</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3834634610213374</v>
+        <v>0.3828883658563066</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>331</v>
@@ -3730,19 +3730,19 @@
         <v>363659</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>331788</v>
+        <v>330483</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>397581</v>
+        <v>398087</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2762258851911721</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2520175881748818</v>
+        <v>0.2510263389004352</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3019926408243084</v>
+        <v>0.302376772754287</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1016</v>
@@ -3751,19 +3751,19 @@
         <v>1092903</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1039134</v>
+        <v>1035514</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1145678</v>
+        <v>1151432</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3263629768267867</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3103063719631823</v>
+        <v>0.3092253272406877</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3421224741819863</v>
+        <v>0.3438409215307311</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>62023</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49027</v>
+        <v>47052</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>77928</v>
+        <v>76832</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.145002897708955</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1146215986556785</v>
+        <v>0.1100030894142296</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1821879767175295</v>
+        <v>0.179625546576661</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -4115,19 +4115,19 @@
         <v>54205</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>42267</v>
+        <v>42861</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>67755</v>
+        <v>67737</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3132347606336734</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2442504817806589</v>
+        <v>0.2476813128221263</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3915341473209781</v>
+        <v>0.3914350979082294</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>111</v>
@@ -4136,19 +4136,19 @@
         <v>116227</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>96968</v>
+        <v>98684</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>137656</v>
+        <v>136852</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1934602785079846</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1614025568643876</v>
+        <v>0.1642587381369639</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2291283011017916</v>
+        <v>0.2277909610487881</v>
       </c>
     </row>
     <row r="5">
@@ -4165,19 +4165,19 @@
         <v>85447</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>69884</v>
+        <v>69816</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>104927</v>
+        <v>102956</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1997674424940729</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1633832971135319</v>
+        <v>0.1632237902088903</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2453105747412432</v>
+        <v>0.2407017479038273</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>38</v>
@@ -4186,19 +4186,19 @@
         <v>39499</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29787</v>
+        <v>29528</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>51312</v>
+        <v>50794</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2282521136968259</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1721331808774711</v>
+        <v>0.1706315056775092</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2965171530858967</v>
+        <v>0.2935261058764014</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>124</v>
@@ -4207,19 +4207,19 @@
         <v>124946</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>103220</v>
+        <v>104757</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>144155</v>
+        <v>145341</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2079721460229437</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1718102877121165</v>
+        <v>0.1743687342248638</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2399457700078375</v>
+        <v>0.241920896201603</v>
       </c>
     </row>
     <row r="6">
@@ -4236,19 +4236,19 @@
         <v>86442</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>69074</v>
+        <v>71039</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>103282</v>
+        <v>104537</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.202094317223473</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1614875690726783</v>
+        <v>0.1660818638886586</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2414639645521891</v>
+        <v>0.2443981365466364</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -4257,19 +4257,19 @@
         <v>21445</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13419</v>
+        <v>14119</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30696</v>
+        <v>30840</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1239225432773983</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07754290141063074</v>
+        <v>0.08159005076939166</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1773820967018206</v>
+        <v>0.1782172017604988</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>108</v>
@@ -4278,19 +4278,19 @@
         <v>107887</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>90046</v>
+        <v>89208</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>125730</v>
+        <v>125876</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1795777775383856</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1498811443775291</v>
+        <v>0.1484867184270673</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2092779133558968</v>
+        <v>0.2095206249958925</v>
       </c>
     </row>
     <row r="7">
@@ -4307,19 +4307,19 @@
         <v>193821</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>175523</v>
+        <v>171932</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>216019</v>
+        <v>214631</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4531353425734992</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4103569403275831</v>
+        <v>0.4019613287915944</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5050312652548358</v>
+        <v>0.5017862212002231</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -4328,19 +4328,19 @@
         <v>57901</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46442</v>
+        <v>46005</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>72064</v>
+        <v>70373</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3345905823921024</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2683727904937788</v>
+        <v>0.2658494498545627</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4164356226038133</v>
+        <v>0.4066662806504175</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>253</v>
@@ -4349,19 +4349,19 @@
         <v>251721</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>227525</v>
+        <v>229739</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>275485</v>
+        <v>280863</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4189897979306861</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3787161707294945</v>
+        <v>0.3824002046707929</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4585456079692552</v>
+        <v>0.4674961990848857</v>
       </c>
     </row>
     <row r="8">
@@ -4453,19 +4453,19 @@
         <v>175861</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>151580</v>
+        <v>150318</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>202538</v>
+        <v>201366</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1589283216514569</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1369855963379927</v>
+        <v>0.1358453315368637</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1830366046556085</v>
+        <v>0.1819782140530613</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>181</v>
@@ -4474,19 +4474,19 @@
         <v>194403</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>168889</v>
+        <v>171217</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>220883</v>
+        <v>219180</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.229102660532424</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1990349980272719</v>
+        <v>0.2017780560660851</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2603094836076953</v>
+        <v>0.2583018518134688</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>344</v>
@@ -4495,19 +4495,19 @@
         <v>370264</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>333039</v>
+        <v>333175</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>405459</v>
+        <v>404190</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1893852522619323</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.170345057462116</v>
+        <v>0.1704148597702427</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2073869564794338</v>
+        <v>0.2067380007881365</v>
       </c>
     </row>
     <row r="10">
@@ -4524,19 +4524,19 @@
         <v>308281</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>279616</v>
+        <v>277326</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>341480</v>
+        <v>337530</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2785986585969085</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.252693502311054</v>
+        <v>0.2506243219421493</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3086009624381192</v>
+        <v>0.3050314951215977</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>261</v>
@@ -4545,19 +4545,19 @@
         <v>272476</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>244235</v>
+        <v>246930</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>300415</v>
+        <v>301818</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3211109871840346</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2878294747203297</v>
+        <v>0.2910056618500468</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3540370177511409</v>
+        <v>0.3556903100784655</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>549</v>
@@ -4566,19 +4566,19 @@
         <v>580757</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>537883</v>
+        <v>543283</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>619047</v>
+        <v>624700</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2970497770900106</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2751202306681554</v>
+        <v>0.2778825868363115</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3166346781374988</v>
+        <v>0.3195259871938331</v>
       </c>
     </row>
     <row r="11">
@@ -4595,19 +4595,19 @@
         <v>233546</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>205931</v>
+        <v>206198</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>264535</v>
+        <v>263959</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2110596797294339</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.186103033682115</v>
+        <v>0.1863446708927065</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2390645589951538</v>
+        <v>0.2385444192933623</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>164</v>
@@ -4616,19 +4616,19 @@
         <v>167620</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>143787</v>
+        <v>146130</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>191774</v>
+        <v>190839</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1975392060983876</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1694521609890186</v>
+        <v>0.1722136954865963</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2260044579489643</v>
+        <v>0.2249023580862054</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>384</v>
@@ -4637,19 +4637,19 @@
         <v>401166</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>367565</v>
+        <v>365150</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>439132</v>
+        <v>436106</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2051915499576659</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1880048266452734</v>
+        <v>0.1867694536224276</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2246103057965844</v>
+        <v>0.2230627745728651</v>
       </c>
     </row>
     <row r="12">
@@ -4666,19 +4666,19 @@
         <v>388853</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>356182</v>
+        <v>360250</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>422361</v>
+        <v>423286</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3514133400222008</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3218878609727517</v>
+        <v>0.3255639807747321</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3816948695012684</v>
+        <v>0.382530768801973</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>210</v>
@@ -4687,19 +4687,19 @@
         <v>214042</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>191199</v>
+        <v>191221</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>241323</v>
+        <v>243164</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2522471461851537</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2253262979723238</v>
+        <v>0.2253525914805047</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2843970173684837</v>
+        <v>0.2865668979106022</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>571</v>
@@ -4708,19 +4708,19 @@
         <v>602895</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>561807</v>
+        <v>563324</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>643168</v>
+        <v>646763</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3083734206903911</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2873574261432946</v>
+        <v>0.2881333668458931</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3289726115392974</v>
+        <v>0.3308111963880828</v>
       </c>
     </row>
     <row r="13">
@@ -4812,19 +4812,19 @@
         <v>50899</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>39136</v>
+        <v>39035</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>65000</v>
+        <v>65863</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2305746506714168</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1772898767292876</v>
+        <v>0.176832681394911</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2944521706389687</v>
+        <v>0.2983629338318176</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>45</v>
@@ -4833,19 +4833,19 @@
         <v>48251</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36166</v>
+        <v>36465</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>62684</v>
+        <v>61982</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2228484706574221</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.16703382539428</v>
+        <v>0.1684172050135581</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2895092026732814</v>
+        <v>0.2862693437684771</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>91</v>
@@ -4854,19 +4854,19 @@
         <v>99150</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>80653</v>
+        <v>82347</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>117455</v>
+        <v>118331</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2267489325445641</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1844477974240586</v>
+        <v>0.1883215822307462</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2686123998469551</v>
+        <v>0.2706145360243239</v>
       </c>
     </row>
     <row r="15">
@@ -4883,19 +4883,19 @@
         <v>72179</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>57383</v>
+        <v>57220</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>87799</v>
+        <v>88317</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3269740211266524</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2599479515219675</v>
+        <v>0.2592093346796185</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3977327356822986</v>
+        <v>0.4000806003289705</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>67</v>
@@ -4904,19 +4904,19 @@
         <v>68033</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>53872</v>
+        <v>54822</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>81209</v>
+        <v>82653</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3142157195113071</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2488113702507093</v>
+        <v>0.2531976598654407</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3750668557846346</v>
+        <v>0.3817357436832215</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>129</v>
@@ -4925,19 +4925,19 @@
         <v>140213</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>120501</v>
+        <v>120819</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>159945</v>
+        <v>162796</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3206565827975855</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2755782500884189</v>
+        <v>0.27630522144932</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3657841773367665</v>
+        <v>0.3723042043354778</v>
       </c>
     </row>
     <row r="16">
@@ -4954,19 +4954,19 @@
         <v>44270</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32840</v>
+        <v>32092</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>58718</v>
+        <v>58173</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2005452952459469</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.148767083662229</v>
+        <v>0.145380334227174</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2659952549834279</v>
+        <v>0.2635285809400529</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>49</v>
@@ -4975,19 +4975,19 @@
         <v>50781</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>39089</v>
+        <v>38676</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>63889</v>
+        <v>63731</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2345362447644019</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1805327190859422</v>
+        <v>0.1786266858579365</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2950766857627461</v>
+        <v>0.2943431230190303</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>90</v>
@@ -4996,19 +4996,19 @@
         <v>95052</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>78197</v>
+        <v>78594</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>113669</v>
+        <v>112080</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2173763542539098</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.178831216875704</v>
+        <v>0.1797391843626376</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.259953680169191</v>
+        <v>0.2563203020923288</v>
       </c>
     </row>
     <row r="17">
@@ -5025,19 +5025,19 @@
         <v>53400</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>40624</v>
+        <v>40140</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>67959</v>
+        <v>68585</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2419060329559839</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1840277509435975</v>
+        <v>0.1818379578324684</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3078556151088963</v>
+        <v>0.3106932034421872</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>46</v>
@@ -5046,19 +5046,19 @@
         <v>49453</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>36045</v>
+        <v>37428</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>63065</v>
+        <v>61465</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.228399565066869</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1664765161752529</v>
+        <v>0.1728630032509976</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2912681104969017</v>
+        <v>0.2838779404487097</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>91</v>
@@ -5067,19 +5067,19 @@
         <v>102853</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>85683</v>
+        <v>84916</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>122989</v>
+        <v>123679</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2352181304039406</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1959507755988358</v>
+        <v>0.1941964407293927</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2812680615729632</v>
+        <v>0.2828455536946179</v>
       </c>
     </row>
     <row r="18">
@@ -5171,19 +5171,19 @@
         <v>288782</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>259029</v>
+        <v>257402</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>323040</v>
+        <v>323484</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.164546174709108</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1475928768849102</v>
+        <v>0.1466661697951504</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1840662222801053</v>
+        <v>0.1843192661300544</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>275</v>
@@ -5192,19 +5192,19 @@
         <v>296859</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>265557</v>
+        <v>267383</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>327790</v>
+        <v>326833</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2397679619106629</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2144864197181507</v>
+        <v>0.2159612976376974</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2647506428785432</v>
+        <v>0.2639781425260901</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>546</v>
@@ -5213,19 +5213,19 @@
         <v>585641</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>540882</v>
+        <v>540092</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>629529</v>
+        <v>628217</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1956616560864067</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1807079130499074</v>
+        <v>0.1804438812600953</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2103247682546075</v>
+        <v>0.2098861670493818</v>
       </c>
     </row>
     <row r="20">
@@ -5242,19 +5242,19 @@
         <v>465907</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>427399</v>
+        <v>430806</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>506178</v>
+        <v>508625</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2654706784756935</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2435289444206604</v>
+        <v>0.2454702204194499</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2884166585432838</v>
+        <v>0.2898112914806517</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>366</v>
@@ -5263,19 +5263,19 @@
         <v>380008</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>350968</v>
+        <v>346626</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>417944</v>
+        <v>413871</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.30692640136838</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2834715396769302</v>
+        <v>0.279964012281171</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3375668111020888</v>
+        <v>0.3342769694162158</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>802</v>
@@ -5284,19 +5284,19 @@
         <v>845915</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>798944</v>
+        <v>795909</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>895728</v>
+        <v>895397</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.282618832243877</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2669259114384298</v>
+        <v>0.2659118781128169</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2992612311474007</v>
+        <v>0.2991508667465496</v>
       </c>
     </row>
     <row r="21">
@@ -5313,19 +5313,19 @@
         <v>364259</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>331316</v>
+        <v>331051</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>396727</v>
+        <v>400415</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2075521390205314</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1887817340763094</v>
+        <v>0.1886306318748077</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2260526510143871</v>
+        <v>0.2281540553439581</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>235</v>
@@ -5334,19 +5334,19 @@
         <v>239846</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>213267</v>
+        <v>211948</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>268531</v>
+        <v>267059</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1937198917961126</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1722526985233184</v>
+        <v>0.1711868812601925</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2168885519850171</v>
+        <v>0.2156989928349407</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>582</v>
@@ -5355,19 +5355,19 @@
         <v>604105</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>561119</v>
+        <v>556719</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>647967</v>
+        <v>649509</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.201830431960257</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1874691290245463</v>
+        <v>0.1859989863298744</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2164845990062701</v>
+        <v>0.2170000912104853</v>
       </c>
     </row>
     <row r="22">
@@ -5384,19 +5384,19 @@
         <v>636074</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>594106</v>
+        <v>595967</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>677399</v>
+        <v>678199</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3624310077946671</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3385178041919089</v>
+        <v>0.3395778173562827</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3859777075143258</v>
+        <v>0.3864330921502653</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>314</v>
@@ -5405,19 +5405,19 @@
         <v>321395</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>292654</v>
+        <v>291891</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>354802</v>
+        <v>354370</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2595857449248445</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2363722836556626</v>
+        <v>0.2357556956666013</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.286568209966225</v>
+        <v>0.2862185790245948</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>915</v>
@@ -5426,19 +5426,19 @@
         <v>957470</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>910821</v>
+        <v>905421</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1013894</v>
+        <v>1008856</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3198890797094593</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3043037095487356</v>
+        <v>0.3024997387182854</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3387405195572629</v>
+        <v>0.3370570596214278</v>
       </c>
     </row>
     <row r="23">
@@ -5769,19 +5769,19 @@
         <v>29745</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21121</v>
+        <v>22043</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40767</v>
+        <v>41528</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09228428868713273</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06552846166237361</v>
+        <v>0.06838757122203108</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1264813674119309</v>
+        <v>0.1288404227804293</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -5790,19 +5790,19 @@
         <v>28643</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22321</v>
+        <v>21818</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37515</v>
+        <v>36323</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2260765465259678</v>
+        <v>0.2260765465259677</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1761798380159077</v>
+        <v>0.1722110170929897</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2960999004632365</v>
+        <v>0.2866904934806549</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>83</v>
@@ -5811,19 +5811,19 @@
         <v>58388</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46728</v>
+        <v>46903</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>71849</v>
+        <v>73093</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1300356558537606</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1040686196787488</v>
+        <v>0.1044576051998203</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1600137046607149</v>
+        <v>0.1627837566301482</v>
       </c>
     </row>
     <row r="5">
@@ -5840,19 +5840,19 @@
         <v>49791</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>38504</v>
+        <v>37606</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>63698</v>
+        <v>61836</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1544784610465919</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.119458281443729</v>
+        <v>0.1166718394106172</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.197622686999536</v>
+        <v>0.1918474588224001</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>58</v>
@@ -5861,19 +5861,19 @@
         <v>38292</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30115</v>
+        <v>30141</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>47162</v>
+        <v>47049</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3022336779624101</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2376987607494136</v>
+        <v>0.2378965466111249</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3722451856541439</v>
+        <v>0.3713520206446366</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>119</v>
@@ -5882,19 +5882,19 @@
         <v>88083</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>73648</v>
+        <v>74663</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>104197</v>
+        <v>105453</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1961696734879947</v>
+        <v>0.1961696734879946</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1640212255701066</v>
+        <v>0.1662813040805634</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2320559100032406</v>
+        <v>0.2348545163125583</v>
       </c>
     </row>
     <row r="6">
@@ -5911,19 +5911,19 @@
         <v>72616</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>59686</v>
+        <v>59155</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>88567</v>
+        <v>87263</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2252906514368235</v>
+        <v>0.2252906514368236</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1851757433728839</v>
+        <v>0.1835277731256608</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2747792644219437</v>
+        <v>0.2707330673168089</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>41</v>
@@ -5932,19 +5932,19 @@
         <v>25575</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19045</v>
+        <v>18610</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33142</v>
+        <v>33104</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2018615816494896</v>
+        <v>0.2018615816494895</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1503237992877267</v>
+        <v>0.1468904576137002</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2615877073165409</v>
+        <v>0.2612889460078743</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>131</v>
@@ -5953,19 +5953,19 @@
         <v>98191</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>83743</v>
+        <v>83021</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>115038</v>
+        <v>115634</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2186798098963539</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1865044013506159</v>
+        <v>0.1848949626698746</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2562008282715313</v>
+        <v>0.2575275788918047</v>
       </c>
     </row>
     <row r="7">
@@ -5982,19 +5982,19 @@
         <v>170168</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>152095</v>
+        <v>154430</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>186186</v>
+        <v>187277</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5279465988294519</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4718772461390247</v>
+        <v>0.4791213781839395</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5776434965494532</v>
+        <v>0.5810269275058083</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>52</v>
@@ -6003,19 +6003,19 @@
         <v>34186</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26641</v>
+        <v>26086</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43003</v>
+        <v>42922</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2698281938621327</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2102753068923503</v>
+        <v>0.2058910752639357</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3394207152249589</v>
+        <v>0.338781220064156</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>253</v>
@@ -6024,19 +6024,19 @@
         <v>204354</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>185771</v>
+        <v>186122</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>222533</v>
+        <v>224407</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4551148607618907</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4137295529629699</v>
+        <v>0.4145119524505769</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4956023924803716</v>
+        <v>0.4997760196589145</v>
       </c>
     </row>
     <row r="8">
@@ -6128,19 +6128,19 @@
         <v>147429</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>125726</v>
+        <v>124217</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>176119</v>
+        <v>172336</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1526100548802742</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1301445194900067</v>
+        <v>0.1285825532527686</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1823078759775026</v>
+        <v>0.1783923555459424</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>203</v>
@@ -6149,19 +6149,19 @@
         <v>136135</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>120971</v>
+        <v>120719</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>154955</v>
+        <v>155530</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1902143280588393</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1690267870936233</v>
+        <v>0.1686750900715507</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2165100947092594</v>
+        <v>0.2173138042446354</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>345</v>
@@ -6170,19 +6170,19 @@
         <v>283564</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>257627</v>
+        <v>254715</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>316487</v>
+        <v>313209</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.16861315242849</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.153190616784956</v>
+        <v>0.1514591222264424</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1881899466686725</v>
+        <v>0.1862409243950127</v>
       </c>
     </row>
     <row r="10">
@@ -6199,19 +6199,19 @@
         <v>271400</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>243953</v>
+        <v>241339</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>304290</v>
+        <v>303472</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2809377641142623</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2525267360760867</v>
+        <v>0.2498202407727489</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3149834221916573</v>
+        <v>0.3141365686392741</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>295</v>
@@ -6220,19 +6220,19 @@
         <v>217335</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>195441</v>
+        <v>196136</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>238930</v>
+        <v>241108</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3036718076886959</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2730793884443273</v>
+        <v>0.274050329854762</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3338441713510006</v>
+        <v>0.3368872601896825</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>532</v>
@@ -6241,19 +6241,19 @@
         <v>488735</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>449868</v>
+        <v>452019</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>524749</v>
+        <v>528402</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2906125985475583</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2675014134374677</v>
+        <v>0.2687801109404439</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3120272214501748</v>
+        <v>0.3141990820844341</v>
       </c>
     </row>
     <row r="11">
@@ -6270,19 +6270,19 @@
         <v>249892</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>220038</v>
+        <v>219833</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>284090</v>
+        <v>279453</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2586740236268218</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2277709126171783</v>
+        <v>0.2275587078429281</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2940733588032372</v>
+        <v>0.2892736494825266</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>239</v>
@@ -6291,19 +6291,19 @@
         <v>192341</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>170392</v>
+        <v>169903</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>216376</v>
+        <v>214454</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2687477300153613</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.238080694168243</v>
+        <v>0.2373969600164378</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.302330756667184</v>
+        <v>0.299645327495191</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>472</v>
@@ -6312,19 +6312,19 @@
         <v>442233</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>403437</v>
+        <v>406080</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>479621</v>
+        <v>480604</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2629610498709502</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2398921202273238</v>
+        <v>0.2414637548135716</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2851930606845652</v>
+        <v>0.2857772268272766</v>
       </c>
     </row>
     <row r="12">
@@ -6341,19 +6341,19 @@
         <v>297329</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>264760</v>
+        <v>266444</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>329297</v>
+        <v>328951</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3077781573786417</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2740649233685202</v>
+        <v>0.2758072765728898</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3408692450553417</v>
+        <v>0.3405113572117881</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>219</v>
@@ -6362,19 +6362,19 @@
         <v>169881</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>148885</v>
+        <v>148509</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>192821</v>
+        <v>191109</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2373661342371035</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2080292204126077</v>
+        <v>0.2075046923539455</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2694194417166454</v>
+        <v>0.2670264011786333</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>505</v>
@@ -6383,19 +6383,19 @@
         <v>467210</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>429318</v>
+        <v>427668</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>504996</v>
+        <v>505828</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2778131991530014</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.255281514035627</v>
+        <v>0.2543008279179165</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3002816600412058</v>
+        <v>0.3007762906096173</v>
       </c>
     </row>
     <row r="13">
@@ -6487,19 +6487,19 @@
         <v>69683</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>56363</v>
+        <v>57192</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>86225</v>
+        <v>84745</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2738087854628005</v>
+        <v>0.2738087854628006</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2214696719069458</v>
+        <v>0.2247282055420525</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3388089077339651</v>
+        <v>0.3329950420980435</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>90</v>
@@ -6508,19 +6508,19 @@
         <v>64554</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>53154</v>
+        <v>51343</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>77112</v>
+        <v>76479</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3059293012976287</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2519057653660494</v>
+        <v>0.2433190770973578</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3654456232128189</v>
+        <v>0.3624452859910019</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>164</v>
@@ -6529,19 +6529,19 @@
         <v>134237</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>116797</v>
+        <v>116038</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>152682</v>
+        <v>153212</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2883687751483451</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2509048063669757</v>
+        <v>0.2492743828446489</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3279934323553227</v>
+        <v>0.3291314443074238</v>
       </c>
     </row>
     <row r="15">
@@ -6558,19 +6558,19 @@
         <v>80628</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>65538</v>
+        <v>64382</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>95491</v>
+        <v>95258</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3168187803500589</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2575232031625778</v>
+        <v>0.2529802527492016</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3752204852554618</v>
+        <v>0.3743023734835252</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>96</v>
@@ -6579,19 +6579,19 @@
         <v>68196</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>57519</v>
+        <v>56285</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>79430</v>
+        <v>80473</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.3231886895889341</v>
+        <v>0.3231886895889342</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2725924899384921</v>
+        <v>0.2667436577312845</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3764273475543362</v>
+        <v>0.3813722501409633</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>175</v>
@@ -6600,19 +6600,19 @@
         <v>148824</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>129458</v>
+        <v>130081</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>170259</v>
+        <v>168635</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3197062125847341</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2781045051983885</v>
+        <v>0.2794412492827028</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3657524933026714</v>
+        <v>0.3622646259102948</v>
       </c>
     </row>
     <row r="16">
@@ -6629,19 +6629,19 @@
         <v>53343</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39308</v>
+        <v>40774</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>69330</v>
+        <v>69926</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2096039286773127</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1544569697977589</v>
+        <v>0.1602178163072911</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2724216497776523</v>
+        <v>0.2747650849568678</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>48</v>
@@ -6650,19 +6650,19 @@
         <v>35188</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26235</v>
+        <v>26692</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>46277</v>
+        <v>46100</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1667584765762286</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1243318712273719</v>
+        <v>0.1264986458068868</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2193107462778816</v>
+        <v>0.2184736528034952</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>100</v>
@@ -6671,19 +6671,19 @@
         <v>88530</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>71212</v>
+        <v>72952</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>106739</v>
+        <v>107076</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1901824055650386</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1529792589597258</v>
+        <v>0.1567172882049986</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.229298271724008</v>
+        <v>0.2300213493777108</v>
       </c>
     </row>
     <row r="17">
@@ -6700,19 +6700,19 @@
         <v>50840</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>38553</v>
+        <v>38938</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>64370</v>
+        <v>62992</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1997685055098279</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.15148921133221</v>
+        <v>0.1530026492246357</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2529338033948665</v>
+        <v>0.24751930569989</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>60</v>
@@ -6721,19 +6721,19 @@
         <v>43072</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>33841</v>
+        <v>33862</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>55625</v>
+        <v>54609</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2041235325372086</v>
+        <v>0.2041235325372087</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1603752312253769</v>
+        <v>0.1604787505215344</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2636157323477183</v>
+        <v>0.2587983153467239</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>117</v>
@@ -6742,19 +6742,19 @@
         <v>93912</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>77100</v>
+        <v>78125</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>110798</v>
+        <v>109568</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2017426067018821</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.165626711568589</v>
+        <v>0.1678282225774174</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2380182387743414</v>
+        <v>0.2353750008566804</v>
       </c>
     </row>
     <row r="18">
@@ -6846,19 +6846,19 @@
         <v>246857</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>218049</v>
+        <v>217757</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>277415</v>
+        <v>280749</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1599989941989456</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1413275913950268</v>
+        <v>0.1411381075912461</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1798050286824649</v>
+        <v>0.1819663178688309</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>340</v>
@@ -6867,19 +6867,19 @@
         <v>229332</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>208476</v>
+        <v>207567</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>254221</v>
+        <v>251919</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2177068036387721</v>
+        <v>0.217706803638772</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1979078369227875</v>
+        <v>0.197045697804054</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2413341400005536</v>
+        <v>0.2391493035308097</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>592</v>
@@ -6888,19 +6888,19 @@
         <v>476189</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>438755</v>
+        <v>439542</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>513798</v>
+        <v>515344</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1834131457870938</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1689947850537665</v>
+        <v>0.1692979794221121</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1978992377435963</v>
+        <v>0.198494557382998</v>
       </c>
     </row>
     <row r="20">
@@ -6917,19 +6917,19 @@
         <v>401820</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>367750</v>
+        <v>367034</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>438796</v>
+        <v>440896</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2604376602808669</v>
+        <v>0.260437660280867</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2383551777403235</v>
+        <v>0.237891382970423</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2844038417846694</v>
+        <v>0.2857647491933877</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>449</v>
@@ -6938,19 +6938,19 @@
         <v>323823</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>295369</v>
+        <v>296642</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>348249</v>
+        <v>348152</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3074083184758355</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2803969514562533</v>
+        <v>0.2816048043764615</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3305964599526785</v>
+        <v>0.3305041206089159</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>826</v>
@@ -6959,19 +6959,19 @@
         <v>725643</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>681220</v>
+        <v>679895</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>771914</v>
+        <v>772505</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2794953601285601</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.262384846719942</v>
+        <v>0.2618744404661553</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2973172908420104</v>
+        <v>0.2975449922970481</v>
       </c>
     </row>
     <row r="21">
@@ -6988,19 +6988,19 @@
         <v>375851</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>339329</v>
+        <v>340387</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>411347</v>
+        <v>412255</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2436058330695904</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2199343236995571</v>
+        <v>0.2206200753975716</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2666124124501396</v>
+        <v>0.2672012938080628</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>328</v>
@@ -7009,19 +7009,19 @@
         <v>253103</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>227256</v>
+        <v>231059</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>279578</v>
+        <v>282250</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2402733204603439</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2157367800773814</v>
+        <v>0.2193468679898296</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2654058004042297</v>
+        <v>0.2679425031097701</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>703</v>
@@ -7030,19 +7030,19 @@
         <v>628954</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>584829</v>
+        <v>588433</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>672605</v>
+        <v>677067</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2422537118201488</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2252581834362579</v>
+        <v>0.2266460704331038</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2590666725086281</v>
+        <v>0.260785146379461</v>
       </c>
     </row>
     <row r="22">
@@ -7059,19 +7059,19 @@
         <v>518337</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>482793</v>
+        <v>480058</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>558961</v>
+        <v>557931</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3359575124505971</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3129201177861849</v>
+        <v>0.3111474504170878</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3622882474327371</v>
+        <v>0.3616206282161802</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>331</v>
@@ -7080,19 +7080,19 @@
         <v>247139</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>219982</v>
+        <v>222200</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>270679</v>
+        <v>275133</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2346115574250487</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2088305940576922</v>
+        <v>0.210936198900916</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2569582965053023</v>
+        <v>0.261186083705666</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>875</v>
@@ -7101,19 +7101,19 @@
         <v>765476</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>718588</v>
+        <v>719269</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>811982</v>
+        <v>812312</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2948377822641973</v>
+        <v>0.2948377822641972</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2767781124427172</v>
+        <v>0.277040392254582</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.312750337428731</v>
+        <v>0.3128776107367202</v>
       </c>
     </row>
     <row r="23">
